--- a/PLPTH813Bioinformatis/2023/data/lab01a_Excel.xlsx
+++ b/PLPTH813Bioinformatis/2023/data/lab01a_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/PLPTH813Bioinformatis/2023/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311C2F9-8383-484F-B7AF-1C77E2DE5D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2C71E-75AB-A643-8223-ABAE7E6A06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -95,28 +95,16 @@
     <t>tip</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
     <t>Questions</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Dinner</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Lunch</t>
-  </si>
-  <si>
-    <t>average tips for waitresses</t>
   </si>
   <si>
     <t># tips &gt; $4.5</t>
@@ -134,19 +122,10 @@
     <t>tip rate?</t>
   </si>
   <si>
-    <t>Male tips</t>
-  </si>
-  <si>
-    <t>Female tips</t>
-  </si>
-  <si>
     <t>dinner tip rate</t>
   </si>
   <si>
     <t>lunch tip rate</t>
-  </si>
-  <si>
-    <t>average tips for waiters</t>
   </si>
   <si>
     <t>average dinner tip rates</t>
@@ -719,7 +698,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,31 +867,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="5" customWidth="1"/>
+    <col min="4" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -920,32 +894,23 @@
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>16.989999999999998</v>
       </c>
@@ -953,22 +918,17 @@
         <v>1.01</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>10.34</v>
       </c>
@@ -976,22 +936,17 @@
         <v>1.66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>21.01</v>
       </c>
@@ -999,22 +954,17 @@
         <v>3.5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>23.68</v>
       </c>
@@ -1022,22 +972,17 @@
         <v>3.31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>24.59</v>
       </c>
@@ -1045,22 +990,17 @@
         <v>3.61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>25.29</v>
       </c>
@@ -1068,22 +1008,17 @@
         <v>4.71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>8.77</v>
       </c>
@@ -1091,22 +1026,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>26.88</v>
       </c>
@@ -1114,22 +1040,13 @@
         <v>3.12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="K9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>15.04</v>
       </c>
@@ -1137,22 +1054,13 @@
         <v>1.96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>14.78</v>
       </c>
@@ -1160,18 +1068,13 @@
         <v>3.23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10.27</v>
       </c>
@@ -1179,18 +1082,13 @@
         <v>1.71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10.51</v>
       </c>
@@ -1198,18 +1096,13 @@
         <v>1.25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>17.920000000000002</v>
       </c>
@@ -1217,18 +1110,13 @@
         <v>3.08</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>27.2</v>
       </c>
@@ -1236,18 +1124,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>22.76</v>
       </c>
@@ -1255,18 +1138,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>17.29</v>
       </c>
@@ -1274,18 +1152,13 @@
         <v>2.71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>19.440000000000001</v>
       </c>
@@ -1293,18 +1166,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16.66</v>
       </c>
@@ -1312,18 +1180,13 @@
         <v>3.4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10.07</v>
       </c>
@@ -1333,16 +1196,11 @@
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>32.68</v>
       </c>
@@ -1350,18 +1208,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>15.98</v>
       </c>
@@ -1369,18 +1222,13 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>34.83</v>
       </c>
@@ -1390,16 +1238,11 @@
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>13.03</v>
       </c>
@@ -1407,18 +1250,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>18.28</v>
       </c>
@@ -1426,18 +1264,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24.71</v>
       </c>
@@ -1445,18 +1278,13 @@
         <v>5.85</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>21.16</v>
       </c>
@@ -1464,18 +1292,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>28.97</v>
       </c>
@@ -1483,18 +1306,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>22.49</v>
       </c>
@@ -1502,18 +1320,13 @@
         <v>3.5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>5.75</v>
       </c>
@@ -1521,18 +1334,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>16.32</v>
       </c>
@@ -1540,18 +1348,13 @@
         <v>4.3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>22.75</v>
       </c>
@@ -1559,18 +1362,13 @@
         <v>3.25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>40.17</v>
       </c>
@@ -1578,18 +1376,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>27.28</v>
       </c>
@@ -1597,18 +1390,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>12.03</v>
       </c>
@@ -1616,18 +1404,13 @@
         <v>1.5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>21.01</v>
       </c>
@@ -1635,18 +1418,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>12.46</v>
       </c>
@@ -1654,18 +1432,13 @@
         <v>1.5</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>11.35</v>
       </c>
@@ -1673,18 +1446,13 @@
         <v>2.5</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>15.38</v>
       </c>
@@ -1692,18 +1460,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44.3</v>
       </c>
@@ -1711,18 +1474,13 @@
         <v>2.5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>22.42</v>
       </c>
@@ -1730,18 +1488,13 @@
         <v>3.48</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>20.92</v>
       </c>
@@ -1749,18 +1502,13 @@
         <v>4.08</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>15.36</v>
       </c>
@@ -1768,18 +1516,13 @@
         <v>1.64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>20.49</v>
       </c>
@@ -1787,18 +1530,13 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>25.21</v>
       </c>
@@ -1806,18 +1544,13 @@
         <v>4.29</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>18.239999999999998</v>
       </c>
@@ -1825,18 +1558,13 @@
         <v>3.76</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>14.31</v>
       </c>
@@ -1844,18 +1572,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>14</v>
       </c>
@@ -1863,18 +1586,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>7.25</v>
       </c>
@@ -1882,18 +1600,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>38.07</v>
       </c>
@@ -1901,18 +1614,13 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>23.95</v>
       </c>
@@ -1920,18 +1628,13 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>25.71</v>
       </c>
@@ -1939,18 +1642,13 @@
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>17.309999999999999</v>
       </c>
@@ -1958,18 +1656,13 @@
         <v>3.5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>29.93</v>
       </c>
@@ -1977,18 +1670,13 @@
         <v>5.07</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>10.65</v>
       </c>
@@ -1998,16 +1686,11 @@
       <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>12.43</v>
       </c>
@@ -2017,16 +1700,11 @@
       <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>24.08</v>
       </c>
@@ -2036,16 +1714,11 @@
       <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>11.69</v>
       </c>
@@ -2053,18 +1726,13 @@
         <v>2.31</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>13.42</v>
       </c>
@@ -2074,16 +1742,11 @@
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>14.26</v>
       </c>
@@ -2091,18 +1754,13 @@
         <v>2.5</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>15.95</v>
       </c>
@@ -2110,18 +1768,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>12.48</v>
       </c>
@@ -2131,16 +1784,11 @@
       <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>29.8</v>
       </c>
@@ -2150,16 +1798,11 @@
       <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>8.52</v>
       </c>
@@ -2167,18 +1810,13 @@
         <v>1.48</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>14.52</v>
       </c>
@@ -2188,16 +1826,11 @@
       <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>11.38</v>
       </c>
@@ -2207,16 +1840,11 @@
       <c r="C66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>22.82</v>
       </c>
@@ -2224,18 +1852,13 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>19.079999999999998</v>
       </c>
@@ -2243,18 +1866,13 @@
         <v>1.5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>20.27</v>
       </c>
@@ -2264,16 +1882,11 @@
       <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>11.17</v>
       </c>
@@ -2283,16 +1896,11 @@
       <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>12.26</v>
       </c>
@@ -2302,16 +1910,11 @@
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>18.260000000000002</v>
       </c>
@@ -2321,16 +1924,11 @@
       <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>8.51</v>
       </c>
@@ -2340,16 +1938,11 @@
       <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>10.33</v>
       </c>
@@ -2359,16 +1952,11 @@
       <c r="C74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>14.15</v>
       </c>
@@ -2378,16 +1966,11 @@
       <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>16</v>
       </c>
@@ -2395,18 +1978,13 @@
         <v>2</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>13.16</v>
       </c>
@@ -2416,16 +1994,11 @@
       <c r="C77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>17.47</v>
       </c>
@@ -2435,16 +2008,11 @@
       <c r="C78" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>34.299999999999997</v>
       </c>
@@ -2452,18 +2020,13 @@
         <v>6.7</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>41.19</v>
       </c>
@@ -2471,18 +2034,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>27.05</v>
       </c>
@@ -2492,16 +2050,11 @@
       <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>16.43</v>
       </c>
@@ -2511,16 +2064,11 @@
       <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>8.35</v>
       </c>
@@ -2530,16 +2078,11 @@
       <c r="C83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>18.64</v>
       </c>
@@ -2549,16 +2092,11 @@
       <c r="C84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>11.87</v>
       </c>
@@ -2568,16 +2106,11 @@
       <c r="C85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>9.7799999999999994</v>
       </c>
@@ -2585,18 +2118,13 @@
         <v>1.73</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>7.51</v>
       </c>
@@ -2604,18 +2132,13 @@
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>14.07</v>
       </c>
@@ -2623,18 +2146,13 @@
         <v>2.5</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>13.13</v>
       </c>
@@ -2642,18 +2160,13 @@
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>17.260000000000002</v>
       </c>
@@ -2661,18 +2174,13 @@
         <v>2.74</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>24.55</v>
       </c>
@@ -2680,18 +2188,13 @@
         <v>2</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>19.77</v>
       </c>
@@ -2699,18 +2202,13 @@
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>29.85</v>
       </c>
@@ -2718,18 +2216,13 @@
         <v>5.14</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>48.17</v>
       </c>
@@ -2737,18 +2230,13 @@
         <v>5</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>25</v>
       </c>
@@ -2756,18 +2244,13 @@
         <v>3.75</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>13.39</v>
       </c>
@@ -2775,18 +2258,13 @@
         <v>2.61</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>16.489999999999998</v>
       </c>
@@ -2794,18 +2272,13 @@
         <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>21.5</v>
       </c>
@@ -2813,18 +2286,13 @@
         <v>3.5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>12.66</v>
       </c>
@@ -2832,18 +2300,13 @@
         <v>2.5</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>16.21</v>
       </c>
@@ -2851,18 +2314,13 @@
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>13.81</v>
       </c>
@@ -2870,18 +2328,13 @@
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>17.510000000000002</v>
       </c>
@@ -2889,18 +2342,13 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>24.52</v>
       </c>
@@ -2908,18 +2356,13 @@
         <v>3.48</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>20.76</v>
       </c>
@@ -2927,16 +2370,11 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2954,7 +2392,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2972,31 +2410,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.3">
@@ -3004,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14">
         <v>23</v>
@@ -3021,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="14">
         <v>35</v>
@@ -3038,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" s="14">
         <v>18</v>
@@ -3055,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14">
         <v>21</v>
@@ -3072,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6" s="14">
         <v>36</v>
@@ -3326,31 +2764,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -3358,32 +2793,23 @@
       <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>16.989999999999998</v>
       </c>
@@ -3391,40 +2817,29 @@
         <v>1.01</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
         <f>B2/A2</f>
         <v>5.9446733372572107E-2</v>
       </c>
+      <c r="E2" s="9">
+        <f>IF(C2="Dinner", D2, "")</f>
+        <v>5.9446733372572107E-2</v>
+      </c>
       <c r="F2" s="9" t="str">
-        <f>IF(C2="Male",B2, "")</f>
-        <v/>
-      </c>
-      <c r="G2" s="9">
-        <f>IF(C2="Female", B2, "")</f>
-        <v>1.01</v>
-      </c>
-      <c r="H2" s="9">
-        <f>IF(D2="Dinner", E2, "")</f>
-        <v>5.9446733372572107E-2</v>
-      </c>
-      <c r="I2" s="9" t="str">
-        <f>IF(D2="Lunch", E2, "")</f>
-        <v/>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3">
+        <f>IF(C2="Lunch", D2, "")</f>
+        <v/>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
         <f>COUNTIF(A2:A181, "&gt;30")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>10.34</v>
       </c>
@@ -3432,40 +2847,29 @@
         <v>1.66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3/A3</f>
+        <v>0.16054158607350097</v>
+      </c>
+      <c r="E3" s="9">
+        <f>IF(C3="Dinner", D3, "")</f>
+        <v>0.16054158607350097</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f>IF(C3="Lunch", D3, "")</f>
+        <v/>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E66" si="0">B3/A3</f>
-        <v>0.16054158607350097</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F66" si="1">IF(C3="Male",B3, "")</f>
-        <v>1.66</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f>IF(C3="Female", B3, "")</f>
-        <v/>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H66" si="2">IF(D3="Dinner", E3, "")</f>
-        <v>0.16054158607350097</v>
-      </c>
-      <c r="I3" s="9" t="str">
-        <f t="shared" ref="I3:I66" si="3">IF(D3="Lunch", E3, "")</f>
-        <v/>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="I3" s="3">
         <f>COUNTIF(B2:B181, "&gt;4.5")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>21.01</v>
       </c>
@@ -3473,40 +2877,29 @@
         <v>3.5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4/A4</f>
+        <v>0.16658733936220846</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C4="Dinner", D4, "")</f>
         <v>0.16658733936220846</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f t="shared" ref="G4:G66" si="4">IF(C4="Female", B4, "")</f>
-        <v/>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="2"/>
-        <v>0.16658733936220846</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="F4" s="9" t="str">
+        <f>IF(C4="Lunch", D4, "")</f>
+        <v/>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11">
         <f>MAX(B2:B104)</f>
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>23.68</v>
       </c>
@@ -3514,40 +2907,29 @@
         <v>3.31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B5/A5</f>
+        <v>0.1397804054054054</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C5="Dinner", D5, "")</f>
         <v>0.1397804054054054</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>3.31</v>
-      </c>
-      <c r="G5" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1397804054054054</v>
-      </c>
-      <c r="I5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="F5" s="9" t="str">
+        <f>IF(C5="Lunch", D5, "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11">
         <f>MIN(B2:B104)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>24.59</v>
       </c>
@@ -3555,40 +2937,29 @@
         <v>3.61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
+        <f>B6/A6</f>
+        <v>0.14680764538430255</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C6="Dinner", D6, "")</f>
         <v>0.14680764538430255</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="4"/>
-        <v>3.61</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.14680764538430255</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" ref="L6" si="5">AVERAGE(F3:F105)</f>
-        <v>2.9746666666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <f>IF(C6="Lunch", D6, "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11">
+        <f>AVERAGE(E2:E104)</f>
+        <v>0.15505717635805349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>25.29</v>
       </c>
@@ -3596,40 +2967,29 @@
         <v>4.71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <f>B7/A7</f>
+        <v>0.18623962040332148</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C7="Dinner", D7, "")</f>
         <v>0.18623962040332148</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>4.71</v>
-      </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="2"/>
-        <v>0.18623962040332148</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="F7" s="9" t="str">
+        <f>IF(C7="Lunch", D7, "")</f>
+        <v/>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11">
         <f>AVERAGE(F2:F104)</f>
-        <v>2.9746666666666668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.15859810530230983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>8.77</v>
       </c>
@@ -3637,40 +2997,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="9">
+        <f>B8/A8</f>
+        <v>0.22805017103762829</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C8="Dinner", D8, "")</f>
         <v>0.22805017103762829</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="2"/>
-        <v>0.22805017103762829</v>
-      </c>
-      <c r="I8" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="11">
-        <f>AVERAGE(G2:G104)</f>
-        <v>2.7027906976744185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" s="9" t="str">
+        <f>IF(C8="Lunch", D8, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>26.88</v>
       </c>
@@ -3678,40 +3020,22 @@
         <v>3.12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9/A9</f>
+        <v>0.11607142857142858</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C9="Dinner", D9, "")</f>
         <v>0.11607142857142858</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>3.12</v>
-      </c>
-      <c r="G9" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>0.11607142857142858</v>
-      </c>
-      <c r="I9" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="11">
-        <f>AVERAGE(H2:H104)</f>
-        <v>0.15505717635805349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="9" t="str">
+        <f>IF(C9="Lunch", D9, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>15.04</v>
       </c>
@@ -3719,40 +3043,22 @@
         <v>1.96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="9">
+        <f>B10/A10</f>
+        <v>0.13031914893617022</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C10="Dinner", D10, "")</f>
         <v>0.13031914893617022</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>1.96</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.13031914893617022</v>
-      </c>
-      <c r="I10" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="11">
-        <f>AVERAGE(I2:I104)</f>
-        <v>0.15859810530230983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="9" t="str">
+        <f>IF(C10="Lunch", D10, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>14.78</v>
       </c>
@@ -3760,33 +3066,22 @@
         <v>3.23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
+        <f>B11/A11</f>
+        <v>0.21853856562922869</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C11="Dinner", D11, "")</f>
         <v>0.21853856562922869</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>3.23</v>
-      </c>
-      <c r="G11" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="2"/>
-        <v>0.21853856562922869</v>
-      </c>
-      <c r="I11" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="9" t="str">
+        <f>IF(C11="Lunch", D11, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10.27</v>
       </c>
@@ -3794,33 +3089,22 @@
         <v>1.71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <f>B12/A12</f>
+        <v>0.1665043816942551</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C12="Dinner", D12, "")</f>
         <v>0.1665043816942551</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>1.71</v>
-      </c>
-      <c r="G12" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1665043816942551</v>
-      </c>
-      <c r="I12" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="9" t="str">
+        <f>IF(C12="Lunch", D12, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10.51</v>
       </c>
@@ -3828,33 +3112,22 @@
         <v>1.25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="9">
+        <f>B13/A13</f>
+        <v>0.11893434823977164</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C13="Dinner", D13, "")</f>
         <v>0.11893434823977164</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="G13" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="2"/>
-        <v>0.11893434823977164</v>
-      </c>
-      <c r="I13" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="9" t="str">
+        <f>IF(C13="Lunch", D13, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>17.920000000000002</v>
       </c>
@@ -3862,33 +3135,22 @@
         <v>3.08</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="9">
+        <f>B14/A14</f>
+        <v>0.171875</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C14="Dinner", D14, "")</f>
         <v>0.171875</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>3.08</v>
-      </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" si="2"/>
-        <v>0.171875</v>
-      </c>
-      <c r="I14" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="9" t="str">
+        <f>IF(C14="Lunch", D14, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>27.2</v>
       </c>
@@ -3896,33 +3158,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9">
+        <f>B15/A15</f>
         <v>0.14705882352941177</v>
       </c>
+      <c r="E15" s="9" t="str">
+        <f>IF(C15="Dinner", D15, "")</f>
+        <v/>
+      </c>
       <c r="F15" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C15="Lunch", D15, "")</f>
         <v>0.14705882352941177</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>22.76</v>
       </c>
@@ -3930,33 +3181,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9">
+        <f>B16/A16</f>
         <v>0.13181019332161686</v>
       </c>
+      <c r="E16" s="9" t="str">
+        <f>IF(C16="Dinner", D16, "")</f>
+        <v/>
+      </c>
       <c r="F16" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G16" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C16="Lunch", D16, "")</f>
         <v>0.13181019332161686</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>17.29</v>
       </c>
@@ -3964,33 +3204,22 @@
         <v>2.71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="9">
+        <f>B17/A17</f>
         <v>0.15673799884326201</v>
       </c>
+      <c r="E17" s="9" t="str">
+        <f>IF(C17="Dinner", D17, "")</f>
+        <v/>
+      </c>
       <c r="F17" s="9">
-        <f t="shared" si="1"/>
-        <v>2.71</v>
-      </c>
-      <c r="G17" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C17="Lunch", D17, "")</f>
         <v>0.15673799884326201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>19.440000000000001</v>
       </c>
@@ -3998,33 +3227,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="9">
+        <f>B18/A18</f>
         <v>0.15432098765432098</v>
       </c>
+      <c r="E18" s="9" t="str">
+        <f>IF(C18="Dinner", D18, "")</f>
+        <v/>
+      </c>
       <c r="F18" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C18="Lunch", D18, "")</f>
         <v>0.15432098765432098</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16.66</v>
       </c>
@@ -4032,33 +3250,22 @@
         <v>3.4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="9">
+        <f>B19/A19</f>
         <v>0.20408163265306123</v>
       </c>
+      <c r="E19" s="9" t="str">
+        <f>IF(C19="Dinner", D19, "")</f>
+        <v/>
+      </c>
       <c r="F19" s="9">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="G19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C19="Lunch", D19, "")</f>
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10.07</v>
       </c>
@@ -4068,31 +3275,20 @@
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
+      <c r="D20" s="9">
+        <f>B20/A20</f>
         <v>0.18172790466732869</v>
       </c>
-      <c r="F20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="4"/>
-        <v>1.83</v>
-      </c>
-      <c r="H20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="3"/>
+      <c r="E20" s="9" t="str">
+        <f>IF(C20="Dinner", D20, "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="9">
+        <f>IF(C20="Lunch", D20, "")</f>
         <v>0.18172790466732869</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>32.68</v>
       </c>
@@ -4100,33 +3296,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="9">
+        <f>B21/A21</f>
         <v>0.15299877600979192</v>
       </c>
+      <c r="E21" s="9" t="str">
+        <f>IF(C21="Dinner", D21, "")</f>
+        <v/>
+      </c>
       <c r="F21" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H21" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C21="Lunch", D21, "")</f>
         <v>0.15299877600979192</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>15.98</v>
       </c>
@@ -4134,33 +3319,22 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="9">
+        <f>B22/A22</f>
         <v>0.12703379224030037</v>
       </c>
+      <c r="E22" s="9" t="str">
+        <f>IF(C22="Dinner", D22, "")</f>
+        <v/>
+      </c>
       <c r="F22" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="G22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C22="Lunch", D22, "")</f>
         <v>0.12703379224030037</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>34.83</v>
       </c>
@@ -4170,31 +3344,20 @@
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
+      <c r="D23" s="9">
+        <f>B23/A23</f>
         <v>0.14843525696238874</v>
       </c>
-      <c r="F23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="9">
-        <f t="shared" si="4"/>
-        <v>5.17</v>
-      </c>
-      <c r="H23" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="3"/>
+      <c r="E23" s="9" t="str">
+        <f>IF(C23="Dinner", D23, "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="9">
+        <f>IF(C23="Lunch", D23, "")</f>
         <v>0.14843525696238874</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>13.03</v>
       </c>
@@ -4202,33 +3365,22 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="9">
+        <f>B24/A24</f>
         <v>0.15349194167306218</v>
       </c>
+      <c r="E24" s="9" t="str">
+        <f>IF(C24="Dinner", D24, "")</f>
+        <v/>
+      </c>
       <c r="F24" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C24="Lunch", D24, "")</f>
         <v>0.15349194167306218</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>18.28</v>
       </c>
@@ -4236,33 +3388,22 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9">
+        <f>B25/A25</f>
         <v>0.21881838074398249</v>
       </c>
+      <c r="E25" s="9" t="str">
+        <f>IF(C25="Dinner", D25, "")</f>
+        <v/>
+      </c>
       <c r="F25" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G25" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C25="Lunch", D25, "")</f>
         <v>0.21881838074398249</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24.71</v>
       </c>
@@ -4270,33 +3411,22 @@
         <v>5.85</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="9">
+        <f>B26/A26</f>
         <v>0.23674625657628487</v>
       </c>
+      <c r="E26" s="9" t="str">
+        <f>IF(C26="Dinner", D26, "")</f>
+        <v/>
+      </c>
       <c r="F26" s="9">
-        <f t="shared" si="1"/>
-        <v>5.85</v>
-      </c>
-      <c r="G26" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H26" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C26="Lunch", D26, "")</f>
         <v>0.23674625657628487</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>21.16</v>
       </c>
@@ -4304,33 +3434,22 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="9">
+        <f>B27/A27</f>
         <v>0.14177693761814744</v>
       </c>
+      <c r="E27" s="9" t="str">
+        <f>IF(C27="Dinner", D27, "")</f>
+        <v/>
+      </c>
       <c r="F27" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H27" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C27="Lunch", D27, "")</f>
         <v>0.14177693761814744</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>28.97</v>
       </c>
@@ -4338,33 +3457,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="9">
+        <f>B28/A28</f>
+        <v>0.10355540214014498</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C28="Dinner", D28, "")</f>
         <v>0.10355540214014498</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="2"/>
-        <v>0.10355540214014498</v>
-      </c>
-      <c r="I28" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="9" t="str">
+        <f>IF(C28="Lunch", D28, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>22.49</v>
       </c>
@@ -4372,33 +3480,22 @@
         <v>3.5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D29" s="9">
+        <f>B29/A29</f>
+        <v>0.15562472209871056</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C29="Dinner", D29, "")</f>
         <v>0.15562472209871056</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="G29" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="2"/>
-        <v>0.15562472209871056</v>
-      </c>
-      <c r="I29" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="9" t="str">
+        <f>IF(C29="Lunch", D29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>5.75</v>
       </c>
@@ -4406,33 +3503,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D30" s="9">
+        <f>B30/A30</f>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C30="Dinner", D30, "")</f>
         <v>0.17391304347826086</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="2"/>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="I30" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C30="Lunch", D30, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>16.32</v>
       </c>
@@ -4440,33 +3526,22 @@
         <v>4.3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D31" s="9">
+        <f>B31/A31</f>
+        <v>0.26348039215686275</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C31="Dinner", D31, "")</f>
         <v>0.26348039215686275</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="4"/>
-        <v>4.3</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="2"/>
-        <v>0.26348039215686275</v>
-      </c>
-      <c r="I31" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C31="Lunch", D31, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>22.75</v>
       </c>
@@ -4474,33 +3549,22 @@
         <v>3.25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D32" s="9">
+        <f>B32/A32</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C32="Dinner", D32, "")</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I32" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C32="Lunch", D32, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>40.17</v>
       </c>
@@ -4508,33 +3572,22 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D33" s="9">
+        <f>B33/A33</f>
+        <v>0.1177495643515061</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C33="Dinner", D33, "")</f>
         <v>0.1177495643515061</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G33" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1177495643515061</v>
-      </c>
-      <c r="I33" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="9" t="str">
+        <f>IF(C33="Lunch", D33, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>27.28</v>
       </c>
@@ -4542,33 +3595,22 @@
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D34" s="9">
+        <f>B34/A34</f>
+        <v>0.14662756598240467</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C34="Dinner", D34, "")</f>
         <v>0.14662756598240467</v>
       </c>
-      <c r="F34" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="2"/>
-        <v>0.14662756598240467</v>
-      </c>
-      <c r="I34" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="9" t="str">
+        <f>IF(C34="Lunch", D34, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>12.03</v>
       </c>
@@ -4576,33 +3618,22 @@
         <v>1.5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="9">
+        <f>B35/A35</f>
+        <v>0.12468827930174564</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C35="Dinner", D35, "")</f>
         <v>0.12468827930174564</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="2"/>
-        <v>0.12468827930174564</v>
-      </c>
-      <c r="I35" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35" s="9" t="str">
+        <f>IF(C35="Lunch", D35, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>21.01</v>
       </c>
@@ -4610,33 +3641,22 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D36" s="9">
+        <f>B36/A36</f>
+        <v>0.1427891480247501</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C36="Dinner", D36, "")</f>
         <v>0.1427891480247501</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G36" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1427891480247501</v>
-      </c>
-      <c r="I36" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="9" t="str">
+        <f>IF(C36="Lunch", D36, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>12.46</v>
       </c>
@@ -4644,33 +3664,22 @@
         <v>1.5</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
+        <f>B37/A37</f>
+        <v>0.1203852327447833</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C37="Dinner", D37, "")</f>
         <v>0.1203852327447833</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1203852327447833</v>
-      </c>
-      <c r="I37" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="9" t="str">
+        <f>IF(C37="Lunch", D37, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>11.35</v>
       </c>
@@ -4678,33 +3687,22 @@
         <v>2.5</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
+        <f>B38/A38</f>
+        <v>0.22026431718061676</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C38="Dinner", D38, "")</f>
         <v>0.22026431718061676</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="2"/>
-        <v>0.22026431718061676</v>
-      </c>
-      <c r="I38" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C38="Lunch", D38, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>15.38</v>
       </c>
@@ -4712,33 +3710,22 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
+        <f>B39/A39</f>
+        <v>0.19505851755526657</v>
       </c>
       <c r="E39" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C39="Dinner", D39, "")</f>
         <v>0.19505851755526657</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="9">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="2"/>
-        <v>0.19505851755526657</v>
-      </c>
-      <c r="I39" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C39="Lunch", D39, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44.3</v>
       </c>
@@ -4746,33 +3733,22 @@
         <v>2.5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <f>B40/A40</f>
+        <v>5.6433408577878111E-2</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C40="Dinner", D40, "")</f>
         <v>5.6433408577878111E-2</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="2"/>
-        <v>5.6433408577878111E-2</v>
-      </c>
-      <c r="I40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C40="Lunch", D40, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>22.42</v>
       </c>
@@ -4780,33 +3756,22 @@
         <v>3.48</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D41" s="9">
+        <f>B41/A41</f>
+        <v>0.15521855486173058</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C41="Dinner", D41, "")</f>
         <v>0.15521855486173058</v>
       </c>
       <c r="F41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="4"/>
-        <v>3.48</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="2"/>
-        <v>0.15521855486173058</v>
-      </c>
-      <c r="I41" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C41="Lunch", D41, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>20.92</v>
       </c>
@@ -4814,33 +3779,22 @@
         <v>4.08</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D42" s="9">
+        <f>B42/A42</f>
+        <v>0.19502868068833651</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C42="Dinner", D42, "")</f>
         <v>0.19502868068833651</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="9">
-        <f t="shared" si="4"/>
-        <v>4.08</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="2"/>
-        <v>0.19502868068833651</v>
-      </c>
-      <c r="I42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C42="Lunch", D42, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>15.36</v>
       </c>
@@ -4848,33 +3802,22 @@
         <v>1.64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D43" s="9">
+        <f>B43/A43</f>
+        <v>0.10677083333333333</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C43="Dinner", D43, "")</f>
         <v>0.10677083333333333</v>
       </c>
-      <c r="F43" s="9">
-        <f t="shared" si="1"/>
-        <v>1.64</v>
-      </c>
-      <c r="G43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="2"/>
-        <v>0.10677083333333333</v>
-      </c>
-      <c r="I43" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F43" s="9" t="str">
+        <f>IF(C43="Lunch", D43, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>20.49</v>
       </c>
@@ -4882,33 +3825,22 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
+        <f>B44/A44</f>
+        <v>0.19814543679843827</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C44="Dinner", D44, "")</f>
         <v>0.19814543679843827</v>
       </c>
-      <c r="F44" s="9">
-        <f t="shared" si="1"/>
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="G44" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H44" s="9">
-        <f t="shared" si="2"/>
-        <v>0.19814543679843827</v>
-      </c>
-      <c r="I44" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F44" s="9" t="str">
+        <f>IF(C44="Lunch", D44, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>25.21</v>
       </c>
@@ -4916,33 +3848,22 @@
         <v>4.29</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D45" s="9">
+        <f>B45/A45</f>
+        <v>0.17017056723522411</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C45="Dinner", D45, "")</f>
         <v>0.17017056723522411</v>
       </c>
-      <c r="F45" s="9">
-        <f t="shared" si="1"/>
-        <v>4.29</v>
-      </c>
-      <c r="G45" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="2"/>
-        <v>0.17017056723522411</v>
-      </c>
-      <c r="I45" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F45" s="9" t="str">
+        <f>IF(C45="Lunch", D45, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>18.239999999999998</v>
       </c>
@@ -4950,33 +3871,22 @@
         <v>3.76</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D46" s="9">
+        <f>B46/A46</f>
+        <v>0.20614035087719298</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C46="Dinner", D46, "")</f>
         <v>0.20614035087719298</v>
       </c>
-      <c r="F46" s="9">
-        <f t="shared" si="1"/>
-        <v>3.76</v>
-      </c>
-      <c r="G46" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H46" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20614035087719298</v>
-      </c>
-      <c r="I46" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F46" s="9" t="str">
+        <f>IF(C46="Lunch", D46, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>14.31</v>
       </c>
@@ -4984,33 +3894,22 @@
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D47" s="9">
+        <f>B47/A47</f>
+        <v>0.27952480782669459</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C47="Dinner", D47, "")</f>
         <v>0.27952480782669459</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="9">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H47" s="9">
-        <f t="shared" si="2"/>
-        <v>0.27952480782669459</v>
-      </c>
-      <c r="I47" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C47="Lunch", D47, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>14</v>
       </c>
@@ -5018,33 +3917,22 @@
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D48" s="9">
+        <f>B48/A48</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C48="Dinner", D48, "")</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="F48" s="9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G48" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H48" s="9">
-        <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="I48" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F48" s="9" t="str">
+        <f>IF(C48="Lunch", D48, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>7.25</v>
       </c>
@@ -5052,33 +3940,22 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
+        <f>B49/A49</f>
+        <v>0.13793103448275862</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C49="Dinner", D49, "")</f>
         <v>0.13793103448275862</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="2"/>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="I49" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C49="Lunch", D49, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>38.07</v>
       </c>
@@ -5086,33 +3963,22 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D50" s="9">
+        <f>B50/A50</f>
+        <v>0.10506960861570791</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C50="Dinner", D50, "")</f>
         <v>0.10506960861570791</v>
       </c>
-      <c r="F50" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G50" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H50" s="9">
-        <f t="shared" si="2"/>
-        <v>0.10506960861570791</v>
-      </c>
-      <c r="I50" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="9" t="str">
+        <f>IF(C50="Lunch", D50, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>23.95</v>
       </c>
@@ -5120,33 +3986,22 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D51" s="9">
+        <f>B51/A51</f>
+        <v>0.10647181628392484</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C51="Dinner", D51, "")</f>
         <v>0.10647181628392484</v>
       </c>
-      <c r="F51" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G51" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H51" s="9">
-        <f t="shared" si="2"/>
-        <v>0.10647181628392484</v>
-      </c>
-      <c r="I51" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F51" s="9" t="str">
+        <f>IF(C51="Lunch", D51, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>25.71</v>
       </c>
@@ -5154,33 +4009,22 @@
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D52" s="9">
+        <f>B52/A52</f>
+        <v>0.15558148580318942</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C52="Dinner", D52, "")</f>
         <v>0.15558148580318942</v>
       </c>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="9">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H52" s="9">
-        <f t="shared" si="2"/>
-        <v>0.15558148580318942</v>
-      </c>
-      <c r="I52" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C52="Lunch", D52, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>17.309999999999999</v>
       </c>
@@ -5188,33 +4032,22 @@
         <v>3.5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D53" s="9">
+        <f>B53/A53</f>
+        <v>0.20219526285384173</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C53="Dinner", D53, "")</f>
         <v>0.20219526285384173</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="9">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="H53" s="9">
-        <f t="shared" si="2"/>
-        <v>0.20219526285384173</v>
-      </c>
-      <c r="I53" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <f>IF(C53="Lunch", D53, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>29.93</v>
       </c>
@@ -5222,33 +4055,22 @@
         <v>5.07</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D54" s="9">
+        <f>B54/A54</f>
+        <v>0.1693952555963916</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(C54="Dinner", D54, "")</f>
         <v>0.1693952555963916</v>
       </c>
-      <c r="F54" s="9">
-        <f t="shared" si="1"/>
-        <v>5.07</v>
-      </c>
-      <c r="G54" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H54" s="9">
-        <f t="shared" si="2"/>
-        <v>0.1693952555963916</v>
-      </c>
-      <c r="I54" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F54" s="9" t="str">
+        <f>IF(C54="Lunch", D54, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>10.65</v>
       </c>
@@ -5258,31 +4080,20 @@
       <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="9">
-        <f t="shared" si="0"/>
+      <c r="D55" s="9">
+        <f>B55/A55</f>
         <v>0.14084507042253522</v>
       </c>
-      <c r="F55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="9">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="H55" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" si="3"/>
+      <c r="E55" s="9" t="str">
+        <f>IF(C55="Dinner", D55, "")</f>
+        <v/>
+      </c>
+      <c r="F55" s="9">
+        <f>IF(C55="Lunch", D55, "")</f>
         <v>0.14084507042253522</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>12.43</v>
       </c>
@@ -5292,31 +4103,20 @@
       <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="9">
-        <f t="shared" si="0"/>
+      <c r="D56" s="9">
+        <f>B56/A56</f>
         <v>0.14481094127111827</v>
       </c>
-      <c r="F56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="9">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-      <c r="H56" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="3"/>
+      <c r="E56" s="9" t="str">
+        <f>IF(C56="Dinner", D56, "")</f>
+        <v/>
+      </c>
+      <c r="F56" s="9">
+        <f>IF(C56="Lunch", D56, "")</f>
         <v>0.14481094127111827</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>24.08</v>
       </c>
@@ -5326,31 +4126,20 @@
       <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="9">
-        <f t="shared" si="0"/>
+      <c r="D57" s="9">
+        <f>B57/A57</f>
         <v>0.1212624584717608</v>
       </c>
-      <c r="F57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="9">
-        <f t="shared" si="4"/>
-        <v>2.92</v>
-      </c>
-      <c r="H57" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I57" s="9">
-        <f t="shared" si="3"/>
+      <c r="E57" s="9" t="str">
+        <f>IF(C57="Dinner", D57, "")</f>
+        <v/>
+      </c>
+      <c r="F57" s="9">
+        <f>IF(C57="Lunch", D57, "")</f>
         <v>0.1212624584717608</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>11.69</v>
       </c>
@@ -5358,33 +4147,22 @@
         <v>2.31</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D58" s="9">
+        <f>B58/A58</f>
         <v>0.19760479041916168</v>
       </c>
+      <c r="E58" s="9" t="str">
+        <f>IF(C58="Dinner", D58, "")</f>
+        <v/>
+      </c>
       <c r="F58" s="9">
-        <f t="shared" si="1"/>
-        <v>2.31</v>
-      </c>
-      <c r="G58" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H58" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C58="Lunch", D58, "")</f>
         <v>0.19760479041916168</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>13.42</v>
       </c>
@@ -5394,31 +4172,20 @@
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="9">
-        <f t="shared" si="0"/>
+      <c r="D59" s="9">
+        <f>B59/A59</f>
         <v>0.12518628912071533</v>
       </c>
-      <c r="F59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="9">
-        <f t="shared" si="4"/>
-        <v>1.68</v>
-      </c>
-      <c r="H59" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="3"/>
+      <c r="E59" s="9" t="str">
+        <f>IF(C59="Dinner", D59, "")</f>
+        <v/>
+      </c>
+      <c r="F59" s="9">
+        <f>IF(C59="Lunch", D59, "")</f>
         <v>0.12518628912071533</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>14.26</v>
       </c>
@@ -5426,33 +4193,22 @@
         <v>2.5</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D60" s="9">
+        <f>B60/A60</f>
         <v>0.17531556802244039</v>
       </c>
+      <c r="E60" s="9" t="str">
+        <f>IF(C60="Dinner", D60, "")</f>
+        <v/>
+      </c>
       <c r="F60" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G60" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H60" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C60="Lunch", D60, "")</f>
         <v>0.17531556802244039</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>15.95</v>
       </c>
@@ -5460,33 +4216,22 @@
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D61" s="9">
+        <f>B61/A61</f>
         <v>0.12539184952978058</v>
       </c>
+      <c r="E61" s="9" t="str">
+        <f>IF(C61="Dinner", D61, "")</f>
+        <v/>
+      </c>
       <c r="F61" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G61" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H61" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I61" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C61="Lunch", D61, "")</f>
         <v>0.12539184952978058</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>12.48</v>
       </c>
@@ -5496,31 +4241,20 @@
       <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="9">
-        <f t="shared" si="0"/>
+      <c r="D62" s="9">
+        <f>B62/A62</f>
         <v>0.20192307692307693</v>
       </c>
-      <c r="F62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G62" s="9">
-        <f t="shared" si="4"/>
-        <v>2.52</v>
-      </c>
-      <c r="H62" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I62" s="9">
-        <f t="shared" si="3"/>
+      <c r="E62" s="9" t="str">
+        <f>IF(C62="Dinner", D62, "")</f>
+        <v/>
+      </c>
+      <c r="F62" s="9">
+        <f>IF(C62="Lunch", D62, "")</f>
         <v>0.20192307692307693</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>29.8</v>
       </c>
@@ -5530,31 +4264,20 @@
       <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="9">
-        <f t="shared" si="0"/>
+      <c r="D63" s="9">
+        <f>B63/A63</f>
         <v>0.14093959731543623</v>
       </c>
-      <c r="F63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="9">
-        <f t="shared" si="4"/>
-        <v>4.2</v>
-      </c>
-      <c r="H63" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I63" s="9">
-        <f t="shared" si="3"/>
+      <c r="E63" s="9" t="str">
+        <f>IF(C63="Dinner", D63, "")</f>
+        <v/>
+      </c>
+      <c r="F63" s="9">
+        <f>IF(C63="Lunch", D63, "")</f>
         <v>0.14093959731543623</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>8.52</v>
       </c>
@@ -5562,33 +4285,22 @@
         <v>1.48</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="9">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D64" s="9">
+        <f>B64/A64</f>
         <v>0.17370892018779344</v>
       </c>
+      <c r="E64" s="9" t="str">
+        <f>IF(C64="Dinner", D64, "")</f>
+        <v/>
+      </c>
       <c r="F64" s="9">
-        <f t="shared" si="1"/>
-        <v>1.48</v>
-      </c>
-      <c r="G64" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H64" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I64" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(C64="Lunch", D64, "")</f>
         <v>0.17370892018779344</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>14.52</v>
       </c>
@@ -5598,31 +4310,20 @@
       <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="9">
-        <f t="shared" si="0"/>
+      <c r="D65" s="9">
+        <f>B65/A65</f>
         <v>0.13774104683195593</v>
       </c>
-      <c r="F65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G65" s="9">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H65" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I65" s="9">
-        <f t="shared" si="3"/>
+      <c r="E65" s="9" t="str">
+        <f>IF(C65="Dinner", D65, "")</f>
+        <v/>
+      </c>
+      <c r="F65" s="9">
+        <f>IF(C65="Lunch", D65, "")</f>
         <v>0.13774104683195593</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>11.38</v>
       </c>
@@ -5632,31 +4333,20 @@
       <c r="C66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="9">
-        <f t="shared" si="0"/>
+      <c r="D66" s="9">
+        <f>B66/A66</f>
         <v>0.17574692442882248</v>
       </c>
-      <c r="F66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G66" s="9">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H66" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I66" s="9">
-        <f t="shared" si="3"/>
+      <c r="E66" s="9" t="str">
+        <f>IF(C66="Dinner", D66, "")</f>
+        <v/>
+      </c>
+      <c r="F66" s="9">
+        <f>IF(C66="Lunch", D66, "")</f>
         <v>0.17574692442882248</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>22.82</v>
       </c>
@@ -5664,33 +4354,22 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="9">
-        <f t="shared" ref="E67:E104" si="6">B67/A67</f>
+        <v>19</v>
+      </c>
+      <c r="D67" s="9">
+        <f>B67/A67</f>
         <v>9.5530236634531113E-2</v>
       </c>
+      <c r="E67" s="9" t="str">
+        <f t="shared" ref="E67:E104" si="0">IF(C67="Dinner", D67, "")</f>
+        <v/>
+      </c>
       <c r="F67" s="9">
-        <f t="shared" ref="F67:F104" si="7">IF(C67="Male",B67, "")</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G67" s="9" t="str">
-        <f t="shared" ref="G67:G104" si="8">IF(C67="Female", B67, "")</f>
-        <v/>
-      </c>
-      <c r="H67" s="9" t="str">
-        <f t="shared" ref="H67:H104" si="9">IF(D67="Dinner", E67, "")</f>
-        <v/>
-      </c>
-      <c r="I67" s="9">
-        <f t="shared" ref="I67:I104" si="10">IF(D67="Lunch", E67, "")</f>
+        <f t="shared" ref="F67:F104" si="1">IF(C67="Lunch", D67, "")</f>
         <v>9.5530236634531113E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>19.079999999999998</v>
       </c>
@@ -5698,33 +4377,22 @@
         <v>1.5</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D68" s="9">
+        <f>B68/A68</f>
         <v>7.8616352201257872E-2</v>
       </c>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F68" s="9">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="G68" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H68" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I68" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>7.8616352201257872E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>20.27</v>
       </c>
@@ -5734,31 +4402,20 @@
       <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="9">
-        <f t="shared" si="6"/>
+      <c r="D69" s="9">
+        <f>B69/A69</f>
         <v>0.13961519486926494</v>
       </c>
-      <c r="F69" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G69" s="9">
-        <f t="shared" si="8"/>
-        <v>2.83</v>
-      </c>
-      <c r="H69" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I69" s="9">
-        <f t="shared" si="10"/>
+      <c r="E69" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="1"/>
         <v>0.13961519486926494</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>11.17</v>
       </c>
@@ -5768,31 +4425,20 @@
       <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="9">
-        <f t="shared" si="6"/>
+      <c r="D70" s="9">
+        <f>B70/A70</f>
         <v>0.13428827215756492</v>
       </c>
-      <c r="F70" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G70" s="9">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="H70" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I70" s="9">
-        <f t="shared" si="10"/>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="1"/>
         <v>0.13428827215756492</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>12.26</v>
       </c>
@@ -5802,31 +4448,20 @@
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="9">
-        <f t="shared" si="6"/>
+      <c r="D71" s="9">
+        <f>B71/A71</f>
         <v>0.16313213703099511</v>
       </c>
-      <c r="F71" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G71" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="H71" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I71" s="9">
-        <f t="shared" si="10"/>
+      <c r="E71" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="1"/>
         <v>0.16313213703099511</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>18.260000000000002</v>
       </c>
@@ -5836,31 +4471,20 @@
       <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="9">
-        <f t="shared" si="6"/>
+      <c r="D72" s="9">
+        <f>B72/A72</f>
         <v>0.17798466593647316</v>
       </c>
-      <c r="F72" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G72" s="9">
-        <f t="shared" si="8"/>
-        <v>3.25</v>
-      </c>
-      <c r="H72" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I72" s="9">
-        <f t="shared" si="10"/>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="1"/>
         <v>0.17798466593647316</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>8.51</v>
       </c>
@@ -5870,31 +4494,20 @@
       <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="9">
-        <f t="shared" si="6"/>
+      <c r="D73" s="9">
+        <f>B73/A73</f>
         <v>0.14688601645123384</v>
       </c>
-      <c r="F73" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G73" s="9">
-        <f t="shared" si="8"/>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I73" s="9">
-        <f t="shared" si="10"/>
+      <c r="E73" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="1"/>
         <v>0.14688601645123384</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>10.33</v>
       </c>
@@ -5904,31 +4517,20 @@
       <c r="C74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="9">
-        <f t="shared" si="6"/>
+      <c r="D74" s="9">
+        <f>B74/A74</f>
         <v>0.1936108422071636</v>
       </c>
-      <c r="F74" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G74" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="H74" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I74" s="9">
-        <f t="shared" si="10"/>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="1"/>
         <v>0.1936108422071636</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>14.15</v>
       </c>
@@ -5938,31 +4540,20 @@
       <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="9">
-        <f t="shared" si="6"/>
+      <c r="D75" s="9">
+        <f>B75/A75</f>
         <v>0.14134275618374559</v>
       </c>
-      <c r="F75" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G75" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="H75" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I75" s="9">
-        <f t="shared" si="10"/>
+      <c r="E75" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="1"/>
         <v>0.14134275618374559</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>16</v>
       </c>
@@ -5970,33 +4561,22 @@
         <v>2</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D76" s="9">
+        <f>B76/A76</f>
         <v>0.125</v>
       </c>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F76" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G76" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H76" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I76" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>13.16</v>
       </c>
@@ -6006,31 +4586,20 @@
       <c r="C77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="9">
-        <f t="shared" si="6"/>
+      <c r="D77" s="9">
+        <f>B77/A77</f>
         <v>0.20896656534954408</v>
       </c>
-      <c r="F77" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G77" s="9">
-        <f t="shared" si="8"/>
-        <v>2.75</v>
-      </c>
-      <c r="H77" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I77" s="9">
-        <f t="shared" si="10"/>
+      <c r="E77" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="1"/>
         <v>0.20896656534954408</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>17.47</v>
       </c>
@@ -6040,31 +4609,20 @@
       <c r="C78" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="9">
-        <f t="shared" si="6"/>
+      <c r="D78" s="9">
+        <f>B78/A78</f>
         <v>0.20034344590726963</v>
       </c>
-      <c r="F78" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G78" s="9">
-        <f t="shared" si="8"/>
-        <v>3.5</v>
-      </c>
-      <c r="H78" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I78" s="9">
-        <f t="shared" si="10"/>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="1"/>
         <v>0.20034344590726963</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>34.299999999999997</v>
       </c>
@@ -6072,33 +4630,22 @@
         <v>6.7</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D79" s="9">
+        <f>B79/A79</f>
         <v>0.19533527696793004</v>
       </c>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F79" s="9">
-        <f t="shared" si="7"/>
-        <v>6.7</v>
-      </c>
-      <c r="G79" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H79" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I79" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.19533527696793004</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>41.19</v>
       </c>
@@ -6106,33 +4653,22 @@
         <v>5</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D80" s="9">
+        <f>B80/A80</f>
         <v>0.12138868657441128</v>
       </c>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F80" s="9">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="G80" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H80" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I80" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.12138868657441128</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>27.05</v>
       </c>
@@ -6142,31 +4678,20 @@
       <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="9">
-        <f t="shared" si="6"/>
+      <c r="D81" s="9">
+        <f>B81/A81</f>
         <v>0.18484288354898337</v>
       </c>
-      <c r="F81" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G81" s="9">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="H81" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I81" s="9">
-        <f t="shared" si="10"/>
+      <c r="E81" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="1"/>
         <v>0.18484288354898337</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>16.43</v>
       </c>
@@ -6176,31 +4701,20 @@
       <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="9">
-        <f t="shared" si="6"/>
+      <c r="D82" s="9">
+        <f>B82/A82</f>
         <v>0.13998782714546559</v>
       </c>
-      <c r="F82" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G82" s="9">
-        <f t="shared" si="8"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H82" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I82" s="9">
-        <f t="shared" si="10"/>
+      <c r="E82" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="1"/>
         <v>0.13998782714546559</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>8.35</v>
       </c>
@@ -6210,31 +4724,20 @@
       <c r="C83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="9">
-        <f t="shared" si="6"/>
+      <c r="D83" s="9">
+        <f>B83/A83</f>
         <v>0.17964071856287425</v>
       </c>
-      <c r="F83" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G83" s="9">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="H83" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I83" s="9">
-        <f t="shared" si="10"/>
+      <c r="E83" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="1"/>
         <v>0.17964071856287425</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>18.64</v>
       </c>
@@ -6244,31 +4747,20 @@
       <c r="C84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="9">
-        <f t="shared" si="6"/>
+      <c r="D84" s="9">
+        <f>B84/A84</f>
         <v>7.2961373390557943E-2</v>
       </c>
-      <c r="F84" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G84" s="9">
-        <f t="shared" si="8"/>
-        <v>1.36</v>
-      </c>
-      <c r="H84" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I84" s="9">
-        <f t="shared" si="10"/>
+      <c r="E84" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="1"/>
         <v>7.2961373390557943E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>11.87</v>
       </c>
@@ -6278,31 +4770,20 @@
       <c r="C85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="9">
-        <f t="shared" si="6"/>
+      <c r="D85" s="9">
+        <f>B85/A85</f>
         <v>0.13732097725358045</v>
       </c>
-      <c r="F85" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G85" s="9">
-        <f t="shared" si="8"/>
-        <v>1.63</v>
-      </c>
-      <c r="H85" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I85" s="9">
-        <f t="shared" si="10"/>
+      <c r="E85" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="1"/>
         <v>0.13732097725358045</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>9.7799999999999994</v>
       </c>
@@ -6310,33 +4791,22 @@
         <v>1.73</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D86" s="9">
+        <f>B86/A86</f>
         <v>0.17689161554192229</v>
       </c>
+      <c r="E86" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F86" s="9">
-        <f t="shared" si="7"/>
-        <v>1.73</v>
-      </c>
-      <c r="G86" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H86" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I86" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.17689161554192229</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>7.51</v>
       </c>
@@ -6344,33 +4814,22 @@
         <v>2</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="9">
-        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D87" s="9">
+        <f>B87/A87</f>
         <v>0.26631158455392812</v>
       </c>
+      <c r="E87" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F87" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G87" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H87" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I87" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0.26631158455392812</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>14.07</v>
       </c>
@@ -6378,33 +4837,22 @@
         <v>2.5</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D88" s="9">
+        <f>B88/A88</f>
+        <v>0.17768301350390903</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.17768301350390903</v>
       </c>
-      <c r="F88" s="9">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="G88" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H88" s="9">
-        <f t="shared" si="9"/>
-        <v>0.17768301350390903</v>
-      </c>
-      <c r="I88" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F88" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>13.13</v>
       </c>
@@ -6412,33 +4860,22 @@
         <v>2</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D89" s="9">
+        <f>B89/A89</f>
+        <v>0.15232292460015232</v>
       </c>
       <c r="E89" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.15232292460015232</v>
       </c>
-      <c r="F89" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G89" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H89" s="9">
-        <f t="shared" si="9"/>
-        <v>0.15232292460015232</v>
-      </c>
-      <c r="I89" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F89" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>17.260000000000002</v>
       </c>
@@ -6446,33 +4883,22 @@
         <v>2.74</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D90" s="9">
+        <f>B90/A90</f>
+        <v>0.15874855156431053</v>
       </c>
       <c r="E90" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.15874855156431053</v>
       </c>
-      <c r="F90" s="9">
-        <f t="shared" si="7"/>
-        <v>2.74</v>
-      </c>
-      <c r="G90" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H90" s="9">
-        <f t="shared" si="9"/>
-        <v>0.15874855156431053</v>
-      </c>
-      <c r="I90" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F90" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>24.55</v>
       </c>
@@ -6480,33 +4906,22 @@
         <v>2</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D91" s="9">
+        <f>B91/A91</f>
+        <v>8.1466395112016296E-2</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>8.1466395112016296E-2</v>
       </c>
-      <c r="F91" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G91" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H91" s="9">
-        <f t="shared" si="9"/>
-        <v>8.1466395112016296E-2</v>
-      </c>
-      <c r="I91" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F91" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>19.77</v>
       </c>
@@ -6514,33 +4929,22 @@
         <v>2</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D92" s="9">
+        <f>B92/A92</f>
+        <v>0.10116337885685382</v>
       </c>
       <c r="E92" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.10116337885685382</v>
       </c>
-      <c r="F92" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G92" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H92" s="9">
-        <f t="shared" si="9"/>
-        <v>0.10116337885685382</v>
-      </c>
-      <c r="I92" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F92" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>29.85</v>
       </c>
@@ -6548,33 +4952,22 @@
         <v>5.14</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D93" s="9">
+        <f>B93/A93</f>
+        <v>0.17219430485762141</v>
       </c>
       <c r="E93" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.17219430485762141</v>
       </c>
       <c r="F93" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G93" s="9">
-        <f t="shared" si="8"/>
-        <v>5.14</v>
-      </c>
-      <c r="H93" s="9">
-        <f t="shared" si="9"/>
-        <v>0.17219430485762141</v>
-      </c>
-      <c r="I93" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>48.17</v>
       </c>
@@ -6582,33 +4975,22 @@
         <v>5</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D94" s="9">
+        <f>B94/A94</f>
+        <v>0.10379904504878555</v>
       </c>
       <c r="E94" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.10379904504878555</v>
       </c>
-      <c r="F94" s="9">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="G94" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H94" s="9">
-        <f t="shared" si="9"/>
-        <v>0.10379904504878555</v>
-      </c>
-      <c r="I94" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F94" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>25</v>
       </c>
@@ -6616,33 +4998,22 @@
         <v>3.75</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D95" s="9">
+        <f>B95/A95</f>
+        <v>0.15</v>
       </c>
       <c r="E95" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="F95" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G95" s="9">
-        <f t="shared" si="8"/>
-        <v>3.75</v>
-      </c>
-      <c r="H95" s="9">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
-      </c>
-      <c r="I95" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>13.39</v>
       </c>
@@ -6650,33 +5021,22 @@
         <v>2.61</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D96" s="9">
+        <f>B96/A96</f>
+        <v>0.19492158327109782</v>
       </c>
       <c r="E96" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.19492158327109782</v>
       </c>
       <c r="F96" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G96" s="9">
-        <f t="shared" si="8"/>
-        <v>2.61</v>
-      </c>
-      <c r="H96" s="9">
-        <f t="shared" si="9"/>
-        <v>0.19492158327109782</v>
-      </c>
-      <c r="I96" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>16.489999999999998</v>
       </c>
@@ -6684,33 +5044,22 @@
         <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D97" s="9">
+        <f>B97/A97</f>
+        <v>0.12128562765312312</v>
       </c>
       <c r="E97" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.12128562765312312</v>
       </c>
-      <c r="F97" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G97" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H97" s="9">
-        <f t="shared" si="9"/>
-        <v>0.12128562765312312</v>
-      </c>
-      <c r="I97" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F97" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>21.5</v>
       </c>
@@ -6718,33 +5067,22 @@
         <v>3.5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D98" s="9">
+        <f>B98/A98</f>
+        <v>0.16279069767441862</v>
       </c>
       <c r="E98" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.16279069767441862</v>
       </c>
-      <c r="F98" s="9">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="G98" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H98" s="9">
-        <f t="shared" si="9"/>
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="I98" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F98" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>12.66</v>
       </c>
@@ -6752,33 +5090,22 @@
         <v>2.5</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D99" s="9">
+        <f>B99/A99</f>
+        <v>0.19747235387045814</v>
       </c>
       <c r="E99" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.19747235387045814</v>
       </c>
-      <c r="F99" s="9">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="G99" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H99" s="9">
-        <f t="shared" si="9"/>
-        <v>0.19747235387045814</v>
-      </c>
-      <c r="I99" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F99" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>16.21</v>
       </c>
@@ -6786,33 +5113,22 @@
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D100" s="9">
+        <f>B100/A100</f>
+        <v>0.12338062924120913</v>
       </c>
       <c r="E100" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.12338062924120913</v>
       </c>
       <c r="F100" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G100" s="9">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="H100" s="9">
-        <f t="shared" si="9"/>
-        <v>0.12338062924120913</v>
-      </c>
-      <c r="I100" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>13.81</v>
       </c>
@@ -6820,33 +5136,22 @@
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D101" s="9">
+        <f>B101/A101</f>
+        <v>0.14482259232440259</v>
       </c>
       <c r="E101" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.14482259232440259</v>
       </c>
-      <c r="F101" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G101" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H101" s="9">
-        <f t="shared" si="9"/>
-        <v>0.14482259232440259</v>
-      </c>
-      <c r="I101" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F101" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>17.510000000000002</v>
       </c>
@@ -6854,33 +5159,22 @@
         <v>3</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D102" s="9">
+        <f>B102/A102</f>
+        <v>0.17133066818960593</v>
       </c>
       <c r="E102" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.17133066818960593</v>
       </c>
       <c r="F102" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G102" s="9">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="H102" s="9">
-        <f t="shared" si="9"/>
-        <v>0.17133066818960593</v>
-      </c>
-      <c r="I102" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>24.52</v>
       </c>
@@ -6888,33 +5182,22 @@
         <v>3.48</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D103" s="9">
+        <f>B103/A103</f>
+        <v>0.14192495921696574</v>
       </c>
       <c r="E103" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.14192495921696574</v>
       </c>
-      <c r="F103" s="9">
-        <f t="shared" si="7"/>
-        <v>3.48</v>
-      </c>
-      <c r="G103" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H103" s="9">
-        <f t="shared" si="9"/>
-        <v>0.14192495921696574</v>
-      </c>
-      <c r="I103" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F103" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>20.76</v>
       </c>
@@ -6922,29 +5205,18 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D104" s="9">
+        <f>B104/A104</f>
+        <v>0.10789980732177264</v>
       </c>
       <c r="E104" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.10789980732177264</v>
       </c>
-      <c r="F104" s="9">
-        <f t="shared" si="7"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G104" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H104" s="9">
-        <f t="shared" si="9"/>
-        <v>0.10789980732177264</v>
-      </c>
-      <c r="I104" s="9" t="str">
-        <f t="shared" si="10"/>
+      <c r="F104" s="9" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6982,31 +5254,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.3">
@@ -7014,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14">
         <v>23</v>
@@ -7049,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="14">
         <v>35</v>
@@ -7084,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" s="14">
         <v>18</v>
@@ -7119,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14">
         <v>21</v>
@@ -7154,7 +5426,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6" s="14">
         <v>36</v>
